--- a/AutoCAD資料/AutoCADリボンメニュー追加.xlsx
+++ b/AutoCAD資料/AutoCADリボンメニュー追加.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27375" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27375" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="リボンメニュー追加方法" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="100">
   <si>
     <t>227:22202:227</t>
     <phoneticPr fontId="1"/>
@@ -506,13 +506,6 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・分割　：　</t>
-    <rPh sb="1" eb="3">
-      <t>ブンカツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1325,25 +1318,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>⑤【完了】タブにパネルが追加されるので、適用ボタンをクリックして内容を確定する。</t>
-    <rPh sb="1" eb="5">
-      <t>｢カンリョウ｣</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>テキヨウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>カクテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>⑤【完了】タブにパネルが追加されるので、適用ボタンをクリックして内容を確定する</t>
     <rPh sb="1" eb="5">
       <t>｢カンリョウ｣</t>
@@ -1551,38 +1525,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>フメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・最新で分割（静止文字）　：　詳細不明</t>
-    <rPh sb="1" eb="3">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ブンカツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セイシ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・最近の項目とドロップ ダウン メニュー　：　ドロップダウンがコマンドボタンしても使用できるもの。（標準機能の「円弧」と同じイメージ）</t>
-    <rPh sb="41" eb="43">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="50" eb="54">
-      <t>ヒョウジュンキノウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>エンコ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>オナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1688,6 +1630,65 @@
     </rPh>
     <rPh sb="60" eb="62">
       <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最近の項目とドロップ ダウン メニュー　：　ドロップダウンがコマンドボタンしても使用できるもの。</t>
+    <rPh sb="41" eb="43">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最新で分割（静止文字）　：　ドロップダウンがコマンドボタンしても使用できるもの。（標準機能の「円弧」と同じ設定）</t>
+    <rPh sb="1" eb="3">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・分割　：　ドロップダウンがコマンドボタンしても使用できるもの。</t>
+    <rPh sb="1" eb="3">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                          最後に使用したコマンドが登録されている。</t>
+    <rPh sb="58" eb="60">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                        基本コマンドの設定が必要</t>
+    <rPh sb="24" eb="26">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4778,31 +4779,36 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>182</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8723809" cy="6628571"/>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>513257</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>199196</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="図 71"/>
+        <xdr:cNvPr id="90" name="図 89"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20574000" y="41824275"/>
-          <a:ext cx="8723809" cy="6628571"/>
+          <a:off x="0" y="50225325"/>
+          <a:ext cx="8742857" cy="6628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4810,32 +4816,153 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="正方形/長方形 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="52606575"/>
+          <a:ext cx="695325" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="正方形/長方形 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="52339875"/>
+          <a:ext cx="828675" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8723809" cy="6628571"/>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>513257</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>199196</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="図 72"/>
+        <xdr:cNvPr id="93" name="図 92"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30861000" y="41824275"/>
-          <a:ext cx="8723809" cy="6628571"/>
+          <a:off x="10287000" y="50225325"/>
+          <a:ext cx="8742857" cy="6628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4843,61 +4970,28 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>60</xdr:col>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8723809" cy="6628571"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="図 73"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="41148000" y="41824275"/>
-          <a:ext cx="8723809" cy="6628571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>492633</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>103632</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="右矢印 75"/>
+        <xdr:cNvPr id="94" name="右矢印 93"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19202400" y="44919900"/>
+          <a:off x="8915400" y="52844700"/>
           <a:ext cx="1178433" cy="1056132"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -4933,25 +5027,315 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>492633</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>103632</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="右矢印 76"/>
+        <xdr:cNvPr id="95" name="正方形/長方形 94"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29489400" y="44443650"/>
+          <a:off x="1504950" y="53092349"/>
+          <a:ext cx="2171700" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="正方形/長方形 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11087100" y="52625625"/>
+          <a:ext cx="1266825" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47624" y="62055375"/>
+          <a:ext cx="4200525" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="正方形/長方形 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743324" y="62569725"/>
+          <a:ext cx="1371601" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="正方形/長方形 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10401300" y="63112650"/>
+          <a:ext cx="4067176" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>625983</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>132207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="右矢印 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9048750" y="61512450"/>
           <a:ext cx="1178433" cy="1056132"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -4987,25 +5371,593 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>625983</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>8382</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="右矢印 77"/>
+        <xdr:cNvPr id="102" name="正方形/長方形 101"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="39909750" y="44348400"/>
+          <a:off x="15030450" y="44729399"/>
+          <a:ext cx="3800475" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14725650" y="60874274"/>
+          <a:ext cx="4200525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>513257</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>208721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30861000" y="1343025"/>
+          <a:ext cx="8742857" cy="6628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="正方形/長方形 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36614100" y="7286625"/>
+          <a:ext cx="866775" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8723809" cy="6628571"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="図 111"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="51406425"/>
+          <a:ext cx="8723809" cy="6628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="正方形/長方形 114"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4333875" y="27965400"/>
+          <a:ext cx="4286250" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="正方形/長方形 116"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391025" y="28908375"/>
+          <a:ext cx="3952875" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8742857" cy="6628571"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="図 117"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20574000" y="42052875"/>
+          <a:ext cx="8742857" cy="6628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="正方形/長方形 118"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20688300" y="46548675"/>
+          <a:ext cx="4067176" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="正方形/長方形 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25288875" y="45529500"/>
+          <a:ext cx="3857625" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="正方形/長方形 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25012650" y="44310299"/>
+          <a:ext cx="4200525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>492633</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>103632</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="右矢印 121"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19202400" y="44672250"/>
           <a:ext cx="1178433" cy="1056132"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -5039,326 +5991,36 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="正方形/長方形 82"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21183600" y="43757850"/>
-          <a:ext cx="1000125" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="正方形/長方形 83"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22269450" y="45015150"/>
-          <a:ext cx="1714500" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="正方形/長方形 84"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="31651575" y="43434000"/>
-          <a:ext cx="676275" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="正方形/長方形 85"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="32365950" y="44738925"/>
-          <a:ext cx="1581150" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="正方形/長方形 86"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="41586150" y="43291125"/>
-          <a:ext cx="1285876" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>513257</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:colOff>446590</xdr:colOff>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>199196</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="図 89"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="50225325"/>
-          <a:ext cx="8742857" cy="6628571"/>
+          <a:off x="0" y="51168300"/>
+          <a:ext cx="8676190" cy="6628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5369,179 +6031,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>492633</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>103632</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="正方形/長方形 90"/>
+        <xdr:cNvPr id="104" name="右矢印 103"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="904875" y="52606575"/>
-          <a:ext cx="695325" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="正方形/長方形 91"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="657225" y="52339875"/>
-          <a:ext cx="828675" cy="152400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>513257</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>199196</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="図 92"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10287000" y="50225325"/>
-          <a:ext cx="8742857" cy="6628571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>492633</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>103632</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="右矢印 93"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915400" y="52844700"/>
+          <a:off x="8915400" y="53549550"/>
           <a:ext cx="1178433" cy="1056132"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -5577,315 +6085,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>492633</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>103632</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="正方形/長方形 94"/>
+        <xdr:cNvPr id="105" name="右矢印 104"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1504950" y="53092349"/>
-          <a:ext cx="2171700" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="正方形/長方形 95"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="52625625"/>
-          <a:ext cx="1266825" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="正方形/長方形 97"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="47624" y="62055375"/>
-          <a:ext cx="4200525" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>231</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>234</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="正方形/長方形 98"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3743324" y="62569725"/>
-          <a:ext cx="1371601" cy="752475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>233</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="正方形/長方形 99"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10401300" y="63112650"/>
-          <a:ext cx="4067176" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>625983</xdr:colOff>
-      <xdr:row>231</xdr:row>
-      <xdr:rowOff>132207</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="右矢印 100"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9048750" y="61512450"/>
+          <a:off x="8915400" y="3952875"/>
           <a:ext cx="1178433" cy="1056132"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -5921,593 +6139,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>492633</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>103632</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="正方形/長方形 101"/>
+        <xdr:cNvPr id="106" name="右矢印 105"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15030450" y="44729399"/>
-          <a:ext cx="3800475" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>224</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="正方形/長方形 102"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14725650" y="60874274"/>
-          <a:ext cx="4200525" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>513257</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>208721</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="30861000" y="1343025"/>
-          <a:ext cx="8742857" cy="6628571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="正方形/長方形 88"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="36614100" y="7286625"/>
-          <a:ext cx="866775" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>249</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8723809" cy="6628571"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="112" name="図 111"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10287000" y="51406425"/>
-          <a:ext cx="8723809" cy="6628571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>257</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>259</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="正方形/長方形 114"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4333875" y="27965400"/>
-          <a:ext cx="4286250" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>261</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>262</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="正方形/長方形 116"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4391025" y="28908375"/>
-          <a:ext cx="3952875" cy="314325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="8742857" cy="6628571"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="118" name="図 117"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20574000" y="42052875"/>
-          <a:ext cx="8742857" cy="6628571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>234</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>236</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="正方形/長方形 118"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20688300" y="46548675"/>
-          <a:ext cx="4067176" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>231</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="正方形/長方形 119"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25288875" y="45529500"/>
-          <a:ext cx="3857625" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>226</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="正方形/長方形 120"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25012650" y="44310299"/>
-          <a:ext cx="4200525" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>492633</xdr:colOff>
-      <xdr:row>231</xdr:row>
-      <xdr:rowOff>103632</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="右矢印 121"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19202400" y="44672250"/>
+          <a:off x="19202400" y="3952875"/>
           <a:ext cx="1178433" cy="1056132"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -6541,35 +6191,111 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>103632</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="右矢印 107"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39776399" y="4229100"/>
+          <a:ext cx="3295651" cy="1560957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 54882"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>＜部分カスタマイズファイルの編集＞</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の手順</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>248</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>446590</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>199196</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="16" name="図 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="51168300"/>
+          <a:off x="10287000" y="9563100"/>
           <a:ext cx="8676190" cy="6628571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6577,29 +6303,163 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>446590</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>199196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1638300"/>
+          <a:ext cx="8676190" cy="6628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>446590</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>199196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="1638300"/>
+          <a:ext cx="8676190" cy="6628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="正方形/長方形 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14773274" y="2895601"/>
+          <a:ext cx="4000501" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>492633</xdr:colOff>
-      <xdr:row>262</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>103632</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="右矢印 103"/>
+        <xdr:cNvPr id="113" name="右矢印 112"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8915400" y="53549550"/>
+          <a:off x="8915400" y="4257675"/>
           <a:ext cx="1178433" cy="1056132"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -6633,27 +6493,277 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>446590</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>199196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20574000" y="1638300"/>
+          <a:ext cx="8676190" cy="6628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>513257</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>199196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="図 113"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9563100"/>
+          <a:ext cx="8742857" cy="6628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>492633</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>103632</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="右矢印 104"/>
+        <xdr:cNvPr id="123" name="正方形/長方形 122"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8915400" y="3952875"/>
+          <a:off x="57150" y="10115549"/>
+          <a:ext cx="3514725" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="正方形/長方形 123"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="12087225"/>
+          <a:ext cx="1619251" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838326" y="12192000"/>
+          <a:ext cx="2257424" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>492633</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>103632</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="右矢印 125"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="12420600"/>
           <a:ext cx="1178433" cy="1056132"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -6689,25 +6799,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>492633</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>103632</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="右矢印 105"/>
+        <xdr:cNvPr id="127" name="右矢印 126"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19202400" y="3952875"/>
+          <a:off x="19202400" y="12420600"/>
           <a:ext cx="1178433" cy="1056132"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -6741,27 +6851,123 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>446590</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>199196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20574000" y="9563100"/>
+          <a:ext cx="8676190" cy="6628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>103632</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="右矢印 107"/>
+        <xdr:cNvPr id="128" name="正方形/長方形 127"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="39776399" y="4229100"/>
+          <a:off x="27089100" y="15782925"/>
+          <a:ext cx="866775" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>132207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="右矢印 128"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29489400" y="12420600"/>
           <a:ext cx="3295651" cy="1560957"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -6806,7 +7012,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
+            <a:t>2</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -6817,142 +7023,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>446590</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>199196</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10287000" y="9563100"/>
-          <a:ext cx="8676190" cy="6628571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>446590</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>199196</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1638300"/>
-          <a:ext cx="8676190" cy="6628571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>446590</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>199196</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10287000" y="1638300"/>
-          <a:ext cx="8676190" cy="6628571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="正方形/長方形 109"/>
+        <xdr:cNvPr id="130" name="正方形/長方形 129"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14773274" y="2895601"/>
-          <a:ext cx="4000501" cy="333374"/>
+          <a:off x="16925925" y="33956625"/>
+          <a:ext cx="828675" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6991,648 +7083,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>492633</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>103632</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="右矢印 112"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915400" y="4257675"/>
-          <a:ext cx="1178433" cy="1056132"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>446590</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>199196</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20574000" y="1638300"/>
-          <a:ext cx="8676190" cy="6628571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>513257</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>199196</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="114" name="図 113"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9563100"/>
-          <a:ext cx="8742857" cy="6628571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="正方形/長方形 122"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="57150" y="10115549"/>
-          <a:ext cx="3514725" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="正方形/長方形 123"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="12087225"/>
-          <a:ext cx="1619251" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="正方形/長方形 124"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1838326" y="12192000"/>
-          <a:ext cx="2257424" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>492633</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>103632</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="右矢印 125"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915400" y="12420600"/>
-          <a:ext cx="1178433" cy="1056132"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>492633</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>103632</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="右矢印 126"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19202400" y="12420600"/>
-          <a:ext cx="1178433" cy="1056132"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>446590</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>199196</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20574000" y="9563100"/>
-          <a:ext cx="8676190" cy="6628571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="正方形/長方形 127"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27089100" y="15782925"/>
-          <a:ext cx="866775" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>132207</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="右矢印 128"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="29489400" y="12420600"/>
-          <a:ext cx="3295651" cy="1560957"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-            <a:gd name="adj2" fmla="val 54882"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>＜部分カスタマイズファイルの編集＞</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の手順</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>へ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="正方形/長方形 129"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16925925" y="33956625"/>
-          <a:ext cx="828675" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>69</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>173</xdr:row>
@@ -7652,64 +7102,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="47739300" y="41890950"/>
-          <a:ext cx="828675" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="正方形/長方形 132"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="47767875" y="50282475"/>
           <a:ext cx="828675" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10654,7 +10046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BH63" sqref="BH63"/>
     </sheetView>
   </sheetViews>
@@ -10662,49 +10054,49 @@
   <sheetData>
     <row r="1" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:61" ht="24" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE52" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT52" t="s">
         <v>42</v>
       </c>
-      <c r="AT52" t="s">
+      <c r="BI52" t="s">
         <v>43</v>
-      </c>
-      <c r="BI52" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -10718,54 +10110,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV249"/>
   <sheetViews>
-    <sheetView topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="BI215" sqref="BI215"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="BI182" sqref="AE181:BI182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:63" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:63" ht="24" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s">
         <v>74</v>
       </c>
-      <c r="P6" t="s">
+      <c r="AE6" t="s">
         <v>75</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AT6" t="s">
         <v>76</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
       <c r="BK7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="24" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.4">
@@ -10773,35 +10165,35 @@
         <v>3</v>
       </c>
       <c r="P39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="24" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.4">
@@ -10814,17 +10206,17 @@
     </row>
     <row r="110" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.4">
@@ -10832,12 +10224,12 @@
         <v>5</v>
       </c>
       <c r="P114" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="146" spans="1:74" ht="24" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AT146" t="s">
         <v>8</v>
@@ -10854,7 +10246,7 @@
         <v>9</v>
       </c>
       <c r="BI147" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="148" spans="1:74" x14ac:dyDescent="0.4">
@@ -10862,38 +10254,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:61" ht="24" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:16" ht="24" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="180" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:61" x14ac:dyDescent="0.4">
-      <c r="AT181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>11</v>
       </c>
       <c r="P182" t="s">
         <v>10</v>
       </c>
-      <c r="AE182" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI182" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="214" spans="1:47" ht="24" x14ac:dyDescent="0.4">
       <c r="A214" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="215" spans="1:47" x14ac:dyDescent="0.4">
@@ -10901,13 +10282,13 @@
         <v>13</v>
       </c>
       <c r="P215" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE215" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AU215" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="216" spans="1:47" x14ac:dyDescent="0.4">
@@ -10915,23 +10296,23 @@
         <v>0</v>
       </c>
       <c r="AE216" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="247" spans="1:31" ht="24" x14ac:dyDescent="0.4">
       <c r="A247" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="248" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P248" t="s">
         <v>19</v>
       </c>
       <c r="AE248" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="249" spans="1:31" x14ac:dyDescent="0.4">
@@ -10964,17 +10345,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
@@ -10989,22 +10370,22 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.4">
@@ -11019,17 +10400,17 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -11042,10 +10423,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CZ129"/>
+  <dimension ref="A1:CZ131"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="Q129" sqref="Q129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11067,7 +10448,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
@@ -11080,7 +10461,7 @@
         <v>22</v>
       </c>
       <c r="Q16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.4">
@@ -11093,7 +10474,7 @@
         <v>24</v>
       </c>
       <c r="Q48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="24" x14ac:dyDescent="0.4">
@@ -11108,7 +10489,7 @@
     </row>
     <row r="83" spans="1:104" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:104" x14ac:dyDescent="0.4">
@@ -11116,22 +10497,22 @@
         <v>29</v>
       </c>
       <c r="Q92" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AF92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AU92" t="s">
         <v>30</v>
       </c>
       <c r="BJ92" t="s">
+        <v>32</v>
+      </c>
+      <c r="BY92" t="s">
         <v>33</v>
       </c>
-      <c r="BY92" t="s">
-        <v>34</v>
-      </c>
       <c r="CN92" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="CZ92" t="s">
         <v>2</v>
@@ -11144,32 +10525,42 @@
     </row>
     <row r="124" spans="17:17" x14ac:dyDescent="0.4">
       <c r="Q124" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="125" spans="17:17" x14ac:dyDescent="0.4">
       <c r="Q125" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126" spans="17:17" x14ac:dyDescent="0.4">
       <c r="Q126" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="17:17" x14ac:dyDescent="0.4">
       <c r="Q127" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="128" spans="17:17" x14ac:dyDescent="0.4">
       <c r="Q128" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129" spans="17:17" x14ac:dyDescent="0.4">
       <c r="Q129" t="s">
-        <v>94</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q130" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="131" spans="17:17" x14ac:dyDescent="0.4">
+      <c r="Q131" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/AutoCAD資料/AutoCADリボンメニュー追加.xlsx
+++ b/AutoCAD資料/AutoCADリボンメニュー追加.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
   <si>
     <t>227:22202:227</t>
     <phoneticPr fontId="1"/>
@@ -1689,6 +1689,57 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤適用ボタンをクリックして内容を確定する</t>
+    <rPh sb="1" eb="3">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④（任意）必要な場合はプロパティの「表示-名前」を変更する</t>
+    <rPh sb="2" eb="4">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　設定をしていない場合はコマンド名がそのままメニューに表示される。</t>
+    <rPh sb="1" eb="3">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5634,8 +5685,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4333875" y="27965400"/>
-          <a:ext cx="4286250" cy="361950"/>
+          <a:off x="14554200" y="62134750"/>
+          <a:ext cx="4267200" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5692,8 +5743,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4391025" y="28908375"/>
-          <a:ext cx="3952875" cy="314325"/>
+          <a:off x="14611350" y="63077725"/>
+          <a:ext cx="3933825" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7291,13 +7342,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>248</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>446590</xdr:colOff>
       <xdr:row>275</xdr:row>
       <xdr:rowOff>199196</xdr:rowOff>
@@ -7329,7 +7380,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>259</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -7362,13 +7413,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>258</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>492633</xdr:colOff>
       <xdr:row>262</xdr:row>
       <xdr:rowOff>103632</xdr:rowOff>
@@ -7416,13 +7467,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>390524</xdr:colOff>
       <xdr:row>274</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>275</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -7436,6 +7487,151 @@
         <a:xfrm>
           <a:off x="27136724" y="66093975"/>
           <a:ext cx="838201" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>492633</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>103632</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="右矢印 146"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19113500" y="61991875"/>
+          <a:ext cx="1175258" cy="1056132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8723809" cy="6628571"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="149" name="図 148"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20478750" y="60086875"/>
+          <a:ext cx="8723809" cy="6628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="正方形/長方形 149"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24812625" y="62801500"/>
+          <a:ext cx="4267200" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10110,8 +10306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="BI182" sqref="AE181:BI182"/>
+    <sheetView tabSelected="1" topLeftCell="K230" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AE249" sqref="AE249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10299,12 +10495,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="247" spans="1:31" ht="24" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:46" ht="24" x14ac:dyDescent="0.4">
       <c r="A247" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>68</v>
       </c>
@@ -10312,12 +10508,18 @@
         <v>19</v>
       </c>
       <c r="AE248" t="s">
-        <v>82</v>
+        <v>101</v>
+      </c>
+      <c r="AT248" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:46" x14ac:dyDescent="0.4">
       <c r="P249" t="s">
         <v>18</v>
+      </c>
+      <c r="AE249" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
